--- a/hw_des/DES_converting_permutation_indexes.xlsx
+++ b/hw_des/DES_converting_permutation_indexes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cryptolib\hw_des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC39392-EC65-434B-AC32-21B9AF373A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DC7F1-8B4E-4847-8205-79399F3F0861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1740" windowWidth="21600" windowHeight="13155" tabRatio="604" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1200" windowWidth="21600" windowHeight="11385" tabRatio="604" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PC-1" sheetId="5" r:id="rId5"/>
     <sheet name="PC-2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -530,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,7 +843,7 @@
   <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -955,15 +953,15 @@
       </c>
       <c r="Y3" s="9" t="str">
         <f>P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3&amp;V3&amp;W3</f>
-        <v>10000000</v>
+        <v>00000000</v>
       </c>
       <c r="Z3" s="9" t="str">
         <f>IF(BIN2DEC(Y3)&lt;16,"0"&amp;BIN2HEX(Y3),BIN2HEX(Y3))</f>
-        <v>80</v>
+        <v>00</v>
       </c>
       <c r="AA3" s="9" t="str">
         <f>Z3&amp;Z4&amp;Z5&amp;Z6&amp;Z7&amp;Z8&amp;Z9&amp;Z10</f>
-        <v>8000000000000000</v>
+        <v>0000008000000002</v>
       </c>
       <c r="AC3" s="4">
         <v>0</v>
@@ -1248,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -1273,11 +1271,11 @@
       </c>
       <c r="Y6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>00000000</v>
+        <v>10000000</v>
       </c>
       <c r="Z6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>80</v>
       </c>
       <c r="AA6" s="9"/>
       <c r="AC6" s="4">
@@ -1682,18 +1680,18 @@
         <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="4">
         <v>0</v>
       </c>
       <c r="Y10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>00000000</v>
+        <v>00000010</v>
       </c>
       <c r="Z10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="AA10" s="9"/>
       <c r="AC10" s="4">
@@ -3332,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,12 +3339,13 @@
     <col min="1" max="4" width="5.7109375" customWidth="1"/>
     <col min="7" max="14" width="4.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="4.42578125" customWidth="1"/>
-    <col min="17" max="24" width="4.7109375" customWidth="1"/>
+    <col min="17" max="24" width="2.7109375" customWidth="1"/>
     <col min="25" max="25" width="4.5703125" customWidth="1"/>
     <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="4.7109375" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" customWidth="1"/>
+    <col min="30" max="37" width="2.7109375" customWidth="1"/>
     <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -5541,7 +5540,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
@@ -7320,7 +7319,7 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8879,12 +8878,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101002277DC900EC8E143A5F79E8D7FA10087" ma:contentTypeVersion="2" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="76a93608a34185dc81be2152c93e9493">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="775a7243-37f3-4b55-87a7-6f8146d31f65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2533f365b69bb8dd93b5e66b5a220d10" ns2:_="">
     <xsd:import namespace="775a7243-37f3-4b55-87a7-6f8146d31f65"/>
@@ -9016,6 +9009,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9026,22 +9025,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C174476-E812-40D4-A673-6F43E208E06B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="775a7243-37f3-4b55-87a7-6f8146d31f65"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8CA7EE-08E0-4C55-9FCF-26D75DFBDADF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9059,6 +9042,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C174476-E812-40D4-A673-6F43E208E06B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="775a7243-37f3-4b55-87a7-6f8146d31f65"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE541DC1-A334-4AC6-B121-D23C169EF494}">
   <ds:schemaRefs>
